--- a/SANANDUVA.xlsx
+++ b/SANANDUVA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CEFD846-F23D-40D4-B12B-7069FDC0A277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AEC74C3-30C2-405F-A2EE-6711B907532A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1182,7 +1182,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{691A9AD4-AFBB-4870-BDA9-E450F1D654B7}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{DE98C819-978B-47D6-8FDF-0F7FF8CB0C76}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1212,10 +1212,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B56194FD-235B-4F54-AAB0-5B06887E20FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{052F78D4-1F38-445E-BB85-5C018EDA7152}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1253,7 +1253,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{895F1537-902C-42BC-A370-909939F0C211}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7C55A4D-F8D1-4A4F-A56E-42DF60BF3F2B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1316,7 +1316,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A3A51AF-E38E-49C7-99D8-B93FABC97CF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8344B7D-D405-4B93-97E5-4EE6437D021E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1335,7 +1335,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C19D19F7-3C6F-41DE-C58D-A20327354588}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39830B87-7194-3DDA-9BCD-B0119D94DA49}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1384,7 +1384,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B3F00F0-4966-14FD-0945-EC5AC1674AA7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F154160-505F-5BEB-356D-8BF79E055EC8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1403,7 +1403,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D30E7CF-8621-8855-DA49-62B6F7B0EAF8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A434A2E4-578B-8694-4B07-BE10394D7C8E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1434,7 +1434,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C8F9E52-C87C-E99C-60C3-FF125E08DE48}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A596BCA8-A53C-A6EC-36AB-1CEE00438160}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1465,7 +1465,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22DE4C0D-881D-DEA8-D66F-95139881C66E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94E75EAE-5006-9A7A-65A0-BFD7D51F9F12}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1508,7 +1508,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DCBBEE4-A2EA-4113-A0EB-E40416CFCDA7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82A4E819-F2A8-4635-B166-7B82566CB595}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1546,7 +1546,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8BD457B-3E7F-4680-B1F8-A0DF3C341EA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1388F636-55D7-42B2-9F22-DC7673937D82}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1589,7 +1589,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7303F34-EED1-4D82-8B89-30996D6BD4AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98A4CAF7-5905-4873-881C-BFA78566096C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1902,7 +1902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{621DEE77-4AA1-49FD-8F8B-76D32DD45B02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1B0540-8235-4535-A196-CB25E17BCCBA}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/SANANDUVA.xlsx
+++ b/SANANDUVA.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AEC74C3-30C2-405F-A2EE-6711B907532A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{465ABF95-D903-4982-A0B3-F241C7B0178C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="6" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="6" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1182,7 +1182,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{DE98C819-978B-47D6-8FDF-0F7FF8CB0C76}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{91E6B221-0C2F-4729-AA35-1AFE8C9FC768}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1212,10 +1212,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{052F78D4-1F38-445E-BB85-5C018EDA7152}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B03112E5-D138-4069-9728-0D2670A28F1F}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1253,7 +1253,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7C55A4D-F8D1-4A4F-A56E-42DF60BF3F2B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5203D44F-453A-4209-804F-3E9D81FDBAFC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1316,7 +1316,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8344B7D-D405-4B93-97E5-4EE6437D021E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09956AD3-B827-40B9-8F97-9ED942CA7AEF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1335,7 +1335,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39830B87-7194-3DDA-9BCD-B0119D94DA49}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C20BDEA1-FF7F-15F3-1FE9-94187DFEAC32}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1384,7 +1384,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F154160-505F-5BEB-356D-8BF79E055EC8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71FD7C5E-7AA5-87D2-41A7-84B8A011BAB9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1403,7 +1403,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A434A2E4-578B-8694-4B07-BE10394D7C8E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAC7C1CD-59F8-D6CD-F08C-9CD752A53382}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1434,7 +1434,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A596BCA8-A53C-A6EC-36AB-1CEE00438160}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EC7BCDE-4C4F-B48A-47C5-96E846135A90}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1465,7 +1465,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94E75EAE-5006-9A7A-65A0-BFD7D51F9F12}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFAAE665-0C86-02C2-E471-DCF107532D4A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1508,7 +1508,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82A4E819-F2A8-4635-B166-7B82566CB595}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9E3872E-DCF6-4E4C-AAC9-FC2563E80078}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1546,7 +1546,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1388F636-55D7-42B2-9F22-DC7673937D82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28FCD9F1-6F24-47FE-BD6B-DF51ED998D48}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1589,7 +1589,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98A4CAF7-5905-4873-881C-BFA78566096C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91C419F7-69BD-4488-BBC2-D6D5F46793E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1902,7 +1902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1B0540-8235-4535-A196-CB25E17BCCBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B242D525-453F-42B6-8D70-99039D160BA9}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/SANANDUVA.xlsx
+++ b/SANANDUVA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{465ABF95-D903-4982-A0B3-F241C7B0178C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D23B38AC-0749-4FBC-B969-D617E31D0AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1182,7 +1182,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{91E6B221-0C2F-4729-AA35-1AFE8C9FC768}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{FB353BFC-973F-42E1-8331-F96DB256C489}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1212,10 +1212,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B03112E5-D138-4069-9728-0D2670A28F1F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73F577C4-BDF5-40FF-86F7-B37B89D8E970}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1253,7 +1253,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5203D44F-453A-4209-804F-3E9D81FDBAFC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{849601A1-C6E1-4CC4-94BE-85649ADC9848}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1316,7 +1316,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09956AD3-B827-40B9-8F97-9ED942CA7AEF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9BDF68C-C202-47A6-9349-1F46A9A327B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1335,7 +1335,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C20BDEA1-FF7F-15F3-1FE9-94187DFEAC32}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F245CEE7-9848-3CB9-C784-CE09AFA23B22}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1384,7 +1384,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71FD7C5E-7AA5-87D2-41A7-84B8A011BAB9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{800627FE-9672-14A7-DCA8-C49D4F0DE794}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1403,7 +1403,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAC7C1CD-59F8-D6CD-F08C-9CD752A53382}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9D79297-B2E6-341F-8403-A95FEF823E35}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1434,7 +1434,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EC7BCDE-4C4F-B48A-47C5-96E846135A90}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DCA30A0-8662-3B42-B69C-9A22B22DD7DF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1465,7 +1465,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFAAE665-0C86-02C2-E471-DCF107532D4A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F562944-7E72-8199-157B-9A67E2303023}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1508,7 +1508,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9E3872E-DCF6-4E4C-AAC9-FC2563E80078}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA23D720-8729-4D66-8CC6-5A47559436E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1546,7 +1546,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28FCD9F1-6F24-47FE-BD6B-DF51ED998D48}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E119B891-D78D-4F35-A703-219F16BA4E31}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1571,50 +1571,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91C419F7-69BD-4488-BBC2-D6D5F46793E2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1902,7 +1858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B242D525-453F-42B6-8D70-99039D160BA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD69AA6D-285F-4CCF-9DB0-3303F740FD7B}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
